--- a/results/mp/logistic/corona/confidence/126/0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,15 +43,12 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -67,105 +64,99 @@
     <t>no</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>relief</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
   </si>
   <si>
     <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
 </sst>
 </file>
@@ -533,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7294520547945206</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.8983050847457628</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.8913043478260869</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L4">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,37 +690,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5277777777777778</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>17</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K5">
-        <v>0.8846153846153846</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,37 +740,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5263157894736842</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C6">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>77</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>112</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K6">
-        <v>0.8833333333333333</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4126984126984127</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C7">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="D7">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>111</v>
+        <v>348</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3294573643410852</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C8">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>346</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2533333333333334</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8302872062663186</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1879194630872483</v>
+        <v>0.1194444444444445</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>121</v>
+        <v>317</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,36 +982,12 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C11">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>48</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>312</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K11">
         <v>0.8018867924528302</v>
@@ -1048,41 +1012,17 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.003691470759665825</v>
-      </c>
-      <c r="C12">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>37</v>
-      </c>
-      <c r="E12">
-        <v>0.49</v>
-      </c>
-      <c r="F12">
-        <v>0.51</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>5128</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7948717948717948</v>
+        <v>0.8015665796344648</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,21 +1034,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7890625</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1120,21 +1060,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1146,21 +1086,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7682926829268293</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1172,21 +1112,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7464788732394366</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1198,21 +1138,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.7375</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1224,21 +1164,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L18">
         <v>34</v>
       </c>
-      <c r="K18">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L18">
-        <v>24</v>
-      </c>
       <c r="M18">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1250,21 +1190,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.725</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L19">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1276,21 +1216,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1302,21 +1242,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6857142857142857</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1328,21 +1268,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6825396825396826</v>
+        <v>0.675</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1354,21 +1294,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6511627906976745</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1380,12 +1320,12 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K24">
         <v>0.64</v>
@@ -1411,16 +1351,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6264705882352941</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L25">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1432,21 +1372,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5774058577405857</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L26">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="M26">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1458,21 +1398,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.575</v>
+        <v>0.5796610169491525</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1484,21 +1424,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5638297872340425</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1510,21 +1450,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5571428571428572</v>
+        <v>0.5606694560669456</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1536,21 +1476,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5389830508474577</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L30">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1562,21 +1502,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>136</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5230769230769231</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1588,12 +1528,12 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>0.4719101123595505</v>
@@ -1619,16 +1559,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.3725490196078431</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1640,21 +1580,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.2948717948717949</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1666,21 +1606,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.2602739726027397</v>
+        <v>0.02</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1692,59 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36">
-        <v>0.01918265221017515</v>
-      </c>
-      <c r="L36">
-        <v>23</v>
-      </c>
-      <c r="M36">
-        <v>24</v>
-      </c>
-      <c r="N36">
-        <v>0.96</v>
-      </c>
-      <c r="O36">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
         <v>1176</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K37">
-        <v>0.007124109486314211</v>
-      </c>
-      <c r="L37">
-        <v>19</v>
-      </c>
-      <c r="M37">
-        <v>25</v>
-      </c>
-      <c r="N37">
-        <v>0.76</v>
-      </c>
-      <c r="O37">
-        <v>0.24</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>2648</v>
       </c>
     </row>
   </sheetData>
